--- a/var_info/indv_panel_var_info/MEPS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/MEPS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74F0E8-DDCF-E840-93A4-8AF83599EBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072BEB4-ECBD-D543-9525-2013BA637698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="85">
   <si>
     <t>ord</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -764,9 +767,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,10 +1135,10 @@
     <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1183,17 +1185,20 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2005</v>
       </c>
       <c r="D2" t="s">
@@ -1220,15 +1225,18 @@
       <c r="K2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2006</v>
       </c>
       <c r="D3" t="s">
@@ -1255,15 +1263,18 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2006</v>
       </c>
       <c r="D4" t="s">
@@ -1290,15 +1301,18 @@
       <c r="K4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2007</v>
       </c>
       <c r="D5" t="s">
@@ -1325,15 +1339,18 @@
       <c r="K5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2007</v>
       </c>
       <c r="D6" t="s">
@@ -1360,15 +1377,18 @@
       <c r="K6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2008</v>
       </c>
       <c r="D7" t="s">
@@ -1395,15 +1415,18 @@
       <c r="K7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2008</v>
       </c>
       <c r="D8" t="s">
@@ -1430,15 +1453,18 @@
       <c r="K8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2009</v>
       </c>
       <c r="D9" t="s">
@@ -1465,15 +1491,18 @@
       <c r="K9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2009</v>
       </c>
       <c r="D10" t="s">
@@ -1500,15 +1529,18 @@
       <c r="K10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2010</v>
       </c>
       <c r="D11" t="s">
@@ -1535,15 +1567,18 @@
       <c r="K11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2010</v>
       </c>
       <c r="D12" t="s">
@@ -1570,15 +1605,18 @@
       <c r="K12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2011</v>
       </c>
       <c r="D13" t="s">
@@ -1605,15 +1643,18 @@
       <c r="K13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2011</v>
       </c>
       <c r="D14" t="s">
@@ -1640,15 +1681,18 @@
       <c r="K14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2012</v>
       </c>
       <c r="D15" t="s">
@@ -1675,15 +1719,18 @@
       <c r="K15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2012</v>
       </c>
       <c r="D16" t="s">
@@ -1710,15 +1757,18 @@
       <c r="K16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2013</v>
       </c>
       <c r="D17" t="s">
@@ -1745,15 +1795,18 @@
       <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
@@ -1780,15 +1833,18 @@
       <c r="K18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
@@ -1815,15 +1871,18 @@
       <c r="K19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
@@ -1850,15 +1909,18 @@
       <c r="K20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21" t="s">
@@ -1885,15 +1947,18 @@
       <c r="K21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
@@ -1920,15 +1985,18 @@
       <c r="K22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2016</v>
       </c>
       <c r="D23" t="s">
@@ -1955,15 +2023,18 @@
       <c r="K23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2016</v>
       </c>
       <c r="D24" t="s">
@@ -1990,15 +2061,18 @@
       <c r="K24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25" t="s">
@@ -2025,15 +2099,18 @@
       <c r="K25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2000</v>
       </c>
       <c r="D26" t="s">
@@ -2060,15 +2137,18 @@
       <c r="K26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2001</v>
       </c>
       <c r="D27" t="s">
@@ -2095,15 +2175,18 @@
       <c r="K27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2001</v>
       </c>
       <c r="D28" t="s">
@@ -2130,15 +2213,18 @@
       <c r="K28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2002</v>
       </c>
       <c r="D29" t="s">
@@ -2165,15 +2251,18 @@
       <c r="K29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2002</v>
       </c>
       <c r="D30" t="s">
@@ -2200,15 +2289,18 @@
       <c r="K30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2003</v>
       </c>
       <c r="D31" t="s">
@@ -2235,15 +2327,18 @@
       <c r="K31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2003</v>
       </c>
       <c r="D32" t="s">
@@ -2270,15 +2365,18 @@
       <c r="K32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>2004</v>
       </c>
       <c r="D33" t="s">
@@ -2305,15 +2403,18 @@
       <c r="K33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>2004</v>
       </c>
       <c r="D34" t="s">
@@ -2340,15 +2441,18 @@
       <c r="K34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>2005</v>
       </c>
       <c r="D35" t="s">
@@ -2374,6 +2478,9 @@
       </c>
       <c r="K35">
         <v>5</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2383,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,7 +2502,7 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2442,17 +2549,20 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2" t="s">
@@ -2464,18 +2574,18 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
@@ -2487,18 +2597,18 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2001</v>
       </c>
       <c r="D4" t="s">
@@ -2510,18 +2620,18 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2002</v>
       </c>
       <c r="D5" t="s">
@@ -2533,18 +2643,18 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2002</v>
       </c>
       <c r="D6" t="s">
@@ -2556,18 +2666,18 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2003</v>
       </c>
       <c r="D7" t="s">
@@ -2579,18 +2689,18 @@
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2003</v>
       </c>
       <c r="D8" t="s">
@@ -2602,18 +2712,18 @@
       <c r="F8" t="s">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2004</v>
       </c>
       <c r="D9" t="s">
@@ -2625,18 +2735,18 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2004</v>
       </c>
       <c r="D10" t="s">
@@ -2648,18 +2758,18 @@
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="P10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2005</v>
       </c>
       <c r="D11" t="s">
@@ -2671,18 +2781,18 @@
       <c r="F11" t="s">
         <v>3</v>
       </c>
-      <c r="P11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2005</v>
       </c>
       <c r="D12" t="s">
@@ -2694,18 +2804,18 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2006</v>
       </c>
       <c r="D13" t="s">
@@ -2717,18 +2827,18 @@
       <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2006</v>
       </c>
       <c r="D14" t="s">
@@ -2740,18 +2850,18 @@
       <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2007</v>
       </c>
       <c r="D15" t="s">
@@ -2763,18 +2873,18 @@
       <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2007</v>
       </c>
       <c r="D16" t="s">
@@ -2786,18 +2896,18 @@
       <c r="F16" t="s">
         <v>3</v>
       </c>
-      <c r="P16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2008</v>
       </c>
       <c r="D17" t="s">
@@ -2809,18 +2919,18 @@
       <c r="F17" t="s">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2008</v>
       </c>
       <c r="D18" t="s">
@@ -2832,18 +2942,18 @@
       <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2009</v>
       </c>
       <c r="D19" t="s">
@@ -2855,18 +2965,18 @@
       <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="P19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2009</v>
       </c>
       <c r="D20" t="s">
@@ -2878,18 +2988,18 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="P20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
@@ -2901,18 +3011,18 @@
       <c r="F21" t="s">
         <v>3</v>
       </c>
-      <c r="P21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2010</v>
       </c>
       <c r="D22" t="s">
@@ -2924,18 +3034,18 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2011</v>
       </c>
       <c r="D23" t="s">
@@ -2947,18 +3057,18 @@
       <c r="F23" t="s">
         <v>3</v>
       </c>
-      <c r="P23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2011</v>
       </c>
       <c r="D24" t="s">
@@ -2970,18 +3080,18 @@
       <c r="F24" t="s">
         <v>3</v>
       </c>
-      <c r="P24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2012</v>
       </c>
       <c r="D25" t="s">
@@ -2993,18 +3103,18 @@
       <c r="F25" t="s">
         <v>3</v>
       </c>
-      <c r="P25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2012</v>
       </c>
       <c r="D26" t="s">
@@ -3016,18 +3126,18 @@
       <c r="F26" t="s">
         <v>3</v>
       </c>
-      <c r="P26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2013</v>
       </c>
       <c r="D27" t="s">
@@ -3039,18 +3149,18 @@
       <c r="F27" t="s">
         <v>3</v>
       </c>
-      <c r="P27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2013</v>
       </c>
       <c r="D28" t="s">
@@ -3062,18 +3172,18 @@
       <c r="F28" t="s">
         <v>3</v>
       </c>
-      <c r="P28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
@@ -3085,18 +3195,18 @@
       <c r="F29" t="s">
         <v>3</v>
       </c>
-      <c r="P29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
@@ -3108,18 +3218,18 @@
       <c r="F30" t="s">
         <v>3</v>
       </c>
-      <c r="P30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2015</v>
       </c>
       <c r="D31" t="s">
@@ -3131,18 +3241,18 @@
       <c r="F31" t="s">
         <v>3</v>
       </c>
-      <c r="P31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
@@ -3154,18 +3264,18 @@
       <c r="F32" t="s">
         <v>3</v>
       </c>
-      <c r="P32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>2016</v>
       </c>
       <c r="D33" t="s">
@@ -3177,18 +3287,18 @@
       <c r="F33" t="s">
         <v>3</v>
       </c>
-      <c r="P33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>2016</v>
       </c>
       <c r="D34" t="s">
@@ -3200,18 +3310,18 @@
       <c r="F34" t="s">
         <v>3</v>
       </c>
-      <c r="P34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>2017</v>
       </c>
       <c r="D35" t="s">
@@ -3223,7 +3333,7 @@
       <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3234,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3245,7 +3355,7 @@
     <col min="4" max="4" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3292,17 +3402,20 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2" t="s">
@@ -3314,18 +3427,18 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
@@ -3337,18 +3450,18 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2001</v>
       </c>
       <c r="D4" t="s">
@@ -3360,18 +3473,18 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2002</v>
       </c>
       <c r="D5" t="s">
@@ -3383,18 +3496,18 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2002</v>
       </c>
       <c r="D6" t="s">
@@ -3406,18 +3519,18 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2003</v>
       </c>
       <c r="D7" t="s">
@@ -3429,18 +3542,18 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2003</v>
       </c>
       <c r="D8" t="s">
@@ -3452,18 +3565,18 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2004</v>
       </c>
       <c r="D9" t="s">
@@ -3475,18 +3588,18 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2004</v>
       </c>
       <c r="D10" t="s">
@@ -3498,18 +3611,18 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2005</v>
       </c>
       <c r="D11" t="s">
@@ -3521,18 +3634,18 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2005</v>
       </c>
       <c r="D12" t="s">
@@ -3544,18 +3657,18 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2006</v>
       </c>
       <c r="D13" t="s">
@@ -3567,18 +3680,18 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2006</v>
       </c>
       <c r="D14" t="s">
@@ -3590,18 +3703,18 @@
       <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2007</v>
       </c>
       <c r="D15" t="s">
@@ -3613,18 +3726,18 @@
       <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2007</v>
       </c>
       <c r="D16" t="s">
@@ -3636,18 +3749,18 @@
       <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2008</v>
       </c>
       <c r="D17" t="s">
@@ -3659,18 +3772,18 @@
       <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2008</v>
       </c>
       <c r="D18" t="s">
@@ -3682,18 +3795,18 @@
       <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2009</v>
       </c>
       <c r="D19" t="s">
@@ -3705,18 +3818,18 @@
       <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2009</v>
       </c>
       <c r="D20" t="s">
@@ -3728,18 +3841,18 @@
       <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
@@ -3751,18 +3864,18 @@
       <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2010</v>
       </c>
       <c r="D22" t="s">
@@ -3774,18 +3887,18 @@
       <c r="F22" t="s">
         <v>6</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2011</v>
       </c>
       <c r="D23" t="s">
@@ -3797,18 +3910,18 @@
       <c r="F23" t="s">
         <v>6</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2011</v>
       </c>
       <c r="D24" t="s">
@@ -3820,18 +3933,18 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2012</v>
       </c>
       <c r="D25" t="s">
@@ -3843,18 +3956,18 @@
       <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2012</v>
       </c>
       <c r="D26" t="s">
@@ -3866,18 +3979,18 @@
       <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2013</v>
       </c>
       <c r="D27" t="s">
@@ -3889,18 +4002,18 @@
       <c r="F27" t="s">
         <v>6</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2013</v>
       </c>
       <c r="D28" t="s">
@@ -3912,18 +4025,18 @@
       <c r="F28" t="s">
         <v>6</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
@@ -3935,18 +4048,18 @@
       <c r="F29" t="s">
         <v>6</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
@@ -3958,18 +4071,18 @@
       <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2015</v>
       </c>
       <c r="D31" t="s">
@@ -3981,18 +4094,18 @@
       <c r="F31" t="s">
         <v>6</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
@@ -4004,18 +4117,18 @@
       <c r="F32" t="s">
         <v>6</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>2016</v>
       </c>
       <c r="D33" t="s">
@@ -4027,18 +4140,18 @@
       <c r="F33" t="s">
         <v>6</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>2016</v>
       </c>
       <c r="D34" t="s">
@@ -4050,18 +4163,18 @@
       <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>2017</v>
       </c>
       <c r="D35" t="s">
@@ -4073,18 +4186,18 @@
       <c r="F35" t="s">
         <v>6</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>2000</v>
       </c>
       <c r="D36" t="s">
@@ -4096,18 +4209,18 @@
       <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>2001</v>
       </c>
       <c r="D37" t="s">
@@ -4119,18 +4232,18 @@
       <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>2001</v>
       </c>
       <c r="D38" t="s">
@@ -4142,18 +4255,18 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>2002</v>
       </c>
       <c r="D39" t="s">
@@ -4165,18 +4278,18 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>2002</v>
       </c>
       <c r="D40" t="s">
@@ -4188,18 +4301,18 @@
       <c r="F40" t="s">
         <v>4</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>2003</v>
       </c>
       <c r="D41" t="s">
@@ -4211,18 +4324,18 @@
       <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>2003</v>
       </c>
       <c r="D42" t="s">
@@ -4234,18 +4347,18 @@
       <c r="F42" t="s">
         <v>4</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>2004</v>
       </c>
       <c r="D43" t="s">
@@ -4257,18 +4370,18 @@
       <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>2004</v>
       </c>
       <c r="D44" t="s">
@@ -4280,18 +4393,18 @@
       <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2005</v>
       </c>
       <c r="D45" t="s">
@@ -4303,18 +4416,18 @@
       <c r="F45" t="s">
         <v>4</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2005</v>
       </c>
       <c r="D46" t="s">
@@ -4326,18 +4439,18 @@
       <c r="F46" t="s">
         <v>4</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>2006</v>
       </c>
       <c r="D47" t="s">
@@ -4349,18 +4462,18 @@
       <c r="F47" t="s">
         <v>4</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>2006</v>
       </c>
       <c r="D48" t="s">
@@ -4372,18 +4485,18 @@
       <c r="F48" t="s">
         <v>4</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>2007</v>
       </c>
       <c r="D49" t="s">
@@ -4395,18 +4508,18 @@
       <c r="F49" t="s">
         <v>4</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>2007</v>
       </c>
       <c r="D50" t="s">
@@ -4418,18 +4531,18 @@
       <c r="F50" t="s">
         <v>4</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>2008</v>
       </c>
       <c r="D51" t="s">
@@ -4441,18 +4554,18 @@
       <c r="F51" t="s">
         <v>4</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>2008</v>
       </c>
       <c r="D52" t="s">
@@ -4464,18 +4577,18 @@
       <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>2009</v>
       </c>
       <c r="D53" t="s">
@@ -4487,18 +4600,18 @@
       <c r="F53" t="s">
         <v>4</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>2009</v>
       </c>
       <c r="D54" t="s">
@@ -4510,18 +4623,18 @@
       <c r="F54" t="s">
         <v>4</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>2010</v>
       </c>
       <c r="D55" t="s">
@@ -4533,18 +4646,18 @@
       <c r="F55" t="s">
         <v>4</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>2010</v>
       </c>
       <c r="D56" t="s">
@@ -4556,18 +4669,18 @@
       <c r="F56" t="s">
         <v>4</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>2011</v>
       </c>
       <c r="D57" t="s">
@@ -4579,18 +4692,18 @@
       <c r="F57" t="s">
         <v>4</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>2011</v>
       </c>
       <c r="D58" t="s">
@@ -4602,18 +4715,18 @@
       <c r="F58" t="s">
         <v>4</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>2012</v>
       </c>
       <c r="D59" t="s">
@@ -4625,18 +4738,18 @@
       <c r="F59" t="s">
         <v>4</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>2012</v>
       </c>
       <c r="D60" t="s">
@@ -4648,18 +4761,18 @@
       <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>2013</v>
       </c>
       <c r="D61" t="s">
@@ -4671,18 +4784,18 @@
       <c r="F61" t="s">
         <v>4</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>2013</v>
       </c>
       <c r="D62" t="s">
@@ -4694,18 +4807,18 @@
       <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>2014</v>
       </c>
       <c r="D63" t="s">
@@ -4717,18 +4830,18 @@
       <c r="F63" t="s">
         <v>4</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>2014</v>
       </c>
       <c r="D64" t="s">
@@ -4740,18 +4853,18 @@
       <c r="F64" t="s">
         <v>4</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>2015</v>
       </c>
       <c r="D65" t="s">
@@ -4763,18 +4876,18 @@
       <c r="F65" t="s">
         <v>4</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>2015</v>
       </c>
       <c r="D66" t="s">
@@ -4786,18 +4899,18 @@
       <c r="F66" t="s">
         <v>4</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>2016</v>
       </c>
       <c r="D67" t="s">
@@ -4809,18 +4922,18 @@
       <c r="F67" t="s">
         <v>4</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>2016</v>
       </c>
       <c r="D68" t="s">
@@ -4832,18 +4945,18 @@
       <c r="F68" t="s">
         <v>4</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>2017</v>
       </c>
       <c r="D69" t="s">
@@ -4855,7 +4968,7 @@
       <c r="F69" t="s">
         <v>4</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4866,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4878,7 +4991,7 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4925,10 +5038,13 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4947,11 +5063,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4970,11 +5086,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4993,11 +5109,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5016,11 +5132,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5039,11 +5155,11 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5062,11 +5178,11 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5085,11 +5201,11 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5108,11 +5224,11 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5131,11 +5247,11 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5154,11 +5270,11 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5177,11 +5293,11 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5200,11 +5316,11 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5223,11 +5339,11 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5246,11 +5362,11 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5269,11 +5385,11 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5292,11 +5408,11 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5315,11 +5431,11 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -5338,11 +5454,11 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -5361,11 +5477,11 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -5384,11 +5500,11 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5407,11 +5523,11 @@
       <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -5430,11 +5546,11 @@
       <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -5453,11 +5569,11 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5476,11 +5592,11 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5499,11 +5615,11 @@
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5522,11 +5638,11 @@
       <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5545,11 +5661,11 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5568,11 +5684,11 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -5591,11 +5707,11 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -5614,11 +5730,11 @@
       <c r="F31" t="s">
         <v>12</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -5637,11 +5753,11 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -5660,11 +5776,11 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5683,11 +5799,11 @@
       <c r="F34" t="s">
         <v>12</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -5706,11 +5822,11 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5729,11 +5845,11 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5752,11 +5868,11 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5775,11 +5891,11 @@
       <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5798,11 +5914,11 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5821,11 +5937,11 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5844,11 +5960,11 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5867,11 +5983,11 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5890,11 +6006,11 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5913,11 +6029,11 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5936,11 +6052,11 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5959,11 +6075,11 @@
       <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5982,11 +6098,11 @@
       <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -6005,11 +6121,11 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -6028,11 +6144,11 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -6051,11 +6167,11 @@
       <c r="F50" t="s">
         <v>12</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -6074,11 +6190,11 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -6097,11 +6213,11 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -6120,11 +6236,11 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -6143,11 +6259,11 @@
       <c r="F54" t="s">
         <v>12</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -6166,11 +6282,11 @@
       <c r="F55" t="s">
         <v>12</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -6189,11 +6305,11 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -6212,11 +6328,11 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -6235,11 +6351,11 @@
       <c r="F58" t="s">
         <v>12</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -6258,11 +6374,11 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -6281,11 +6397,11 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -6304,11 +6420,11 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -6327,11 +6443,11 @@
       <c r="F62" t="s">
         <v>12</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -6350,7 +6466,7 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6361,10 +6477,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6372,7 +6488,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6419,6 +6535,9 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6431,7 +6550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87334B4-DC14-C64E-BEA2-F3576FC3E481}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
